--- a/flows/USL_fund_flow_data.xlsx
+++ b/flows/USL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4083"/>
+  <dimension ref="A1:B4101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41265,6 +41265,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4084">
+      <c r="A4084" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4089" t="n">
+        <v>-1.88615</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4100" t="n">
+        <v>-3.8419</v>
+      </c>
+    </row>
+    <row r="4101">
+      <c r="A4101" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4101" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
